--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>No.</t>
   </si>
@@ -46,46 +46,31 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
+    <t>Troy Brown Jr.</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Wenyen Gabriel</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
   </si>
   <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Troy Brown Jr.</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Wenyen Gabriel</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
+    <t>Max Christie</t>
   </si>
   <si>
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Juan Toscano-Anderson</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Scotty Pippen Jr. (TW)</t>
@@ -94,7 +79,25 @@
     <t>Cole Swider (TW)</t>
   </si>
   <si>
-    <t>Sterling Brown</t>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Davon Reed</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>PF</t>
   </si>
   <si>
     <t>PG</t>
@@ -103,82 +106,58 @@
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>November 12, 1988</t>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>July 28, 1999</t>
+  </si>
+  <si>
+    <t>December 30, 1984</t>
+  </si>
+  <si>
+    <t>March 26, 1997</t>
+  </si>
+  <si>
+    <t>September 15, 1993</t>
+  </si>
+  <si>
+    <t>December 14, 1998</t>
   </si>
   <si>
     <t>May 29, 1998</t>
   </si>
   <si>
-    <t>July 28, 1999</t>
-  </si>
-  <si>
-    <t>August 3, 1995</t>
-  </si>
-  <si>
-    <t>July 12, 1988</t>
-  </si>
-  <si>
-    <t>March 26, 1997</t>
-  </si>
-  <si>
-    <t>December 30, 1984</t>
-  </si>
-  <si>
-    <t>December 14, 1998</t>
-  </si>
-  <si>
-    <t>July 31, 1997</t>
-  </si>
-  <si>
-    <t>September 15, 1993</t>
+    <t>February 10, 2003</t>
   </si>
   <si>
     <t>March 11, 1993</t>
   </si>
   <si>
-    <t>February 10, 2003</t>
-  </si>
-  <si>
-    <t>April 10, 1993</t>
-  </si>
-  <si>
-    <t>June 30, 1995</t>
+    <t>February 8, 1998</t>
   </si>
   <si>
     <t>November 10, 2000</t>
@@ -187,7 +166,19 @@
     <t>May 8, 1999</t>
   </si>
   <si>
-    <t>February 10, 1995</t>
+    <t>February 23, 1996</t>
+  </si>
+  <si>
+    <t>April 3, 1999</t>
+  </si>
+  <si>
+    <t>November 26, 1996</t>
+  </si>
+  <si>
+    <t>May 12, 1998</t>
+  </si>
+  <si>
+    <t>June 11, 1995</t>
   </si>
   <si>
     <t>us</t>
@@ -199,67 +190,52 @@
     <t>de</t>
   </si>
   <si>
-    <t>14</t>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>R</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>7</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
   </si>
   <si>
     <t>Wichita State, Oklahoma</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Illinois, Oakland</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
-    <t>Marquette</t>
+    <t>Gonzaga</t>
   </si>
   <si>
     <t>Vanderbilt</t>
@@ -268,49 +244,40 @@
     <t>Villanova, Syracuse</t>
   </si>
   <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/beverpa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
+    <t>https://www.basketball-reference.com/players/c/chrisma02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/chrisma02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
+    <t>https://www.basketball-reference.com/players/h/hachiru01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pippesc02.html</t>
@@ -319,7 +286,19 @@
     <t>https://www.basketball-reference.com/players/s/swideco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brownst02.html</t>
+    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
   </si>
 </sst>
 </file>
@@ -690,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +712,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,34 +747,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,34 +779,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -847,25 +823,22 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,34 +846,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,34 +881,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,31 +916,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -975,34 +951,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1010,34 +986,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1045,31 +1021,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,34 +1056,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1124,22 +1103,22 @@
         <v>34</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,34 +1126,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,78 +1161,72 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1261,60 +1234,25 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
         <v>70</v>
       </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>219</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1273,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -49,12 +49,12 @@
     <t>Troy Brown Jr.</t>
   </si>
   <si>
+    <t>Wenyen Gabriel</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Wenyen Gabriel</t>
-  </si>
-  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
     <t>Max Christie</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>D'Angelo Russell</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
+    <t>Davon Reed</t>
   </si>
   <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Davon Reed</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>July 28, 1999</t>
   </si>
   <si>
+    <t>March 26, 1997</t>
+  </si>
+  <si>
     <t>December 30, 1984</t>
   </si>
   <si>
-    <t>March 26, 1997</t>
-  </si>
-  <si>
     <t>September 15, 1993</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>May 29, 1998</t>
   </si>
   <si>
+    <t>March 11, 1993</t>
+  </si>
+  <si>
     <t>February 10, 2003</t>
   </si>
   <si>
-    <t>March 11, 1993</t>
-  </si>
-  <si>
     <t>February 8, 1998</t>
   </si>
   <si>
@@ -169,18 +169,18 @@
     <t>February 23, 1996</t>
   </si>
   <si>
+    <t>November 26, 1996</t>
+  </si>
+  <si>
     <t>April 3, 1999</t>
   </si>
   <si>
-    <t>November 26, 1996</t>
+    <t>June 11, 1995</t>
   </si>
   <si>
     <t>May 12, 1998</t>
   </si>
   <si>
-    <t>June 11, 1995</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -196,24 +196,24 @@
     <t>4</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/chrisma02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hachiru01.html</t>
   </si>
   <si>
@@ -289,16 +289,16 @@
     <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
+    <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -759,16 +759,19 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>80</v>
@@ -779,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -791,19 +794,16 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>81</v>
@@ -916,19 +916,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -940,7 +940,7 @@
         <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>85</v>
@@ -951,19 +951,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -975,7 +975,7 @@
         <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>86</v>
@@ -1007,7 +1007,7 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
         <v>73</v>
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -1077,7 +1077,7 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>75</v>
@@ -1126,19 +1126,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1147,10 +1147,10 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>91</v>
@@ -1161,19 +1161,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1182,10 +1182,10 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>92</v>
@@ -1195,17 +1195,20 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1214,10 +1217,10 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>93</v>
@@ -1227,17 +1230,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1246,10 +1252,10 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>94</v>

--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -49,21 +49,21 @@
     <t>Troy Brown Jr.</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
     <t>Wenyen Gabriel</t>
   </si>
   <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
@@ -73,6 +73,15 @@
     <t>Rui Hachimura</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
     <t>Scotty Pippen Jr. (TW)</t>
   </si>
   <si>
@@ -82,27 +91,18 @@
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
     <t>Davon Reed</t>
   </si>
   <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -136,21 +136,21 @@
     <t>July 28, 1999</t>
   </si>
   <si>
+    <t>September 15, 1993</t>
+  </si>
+  <si>
     <t>March 26, 1997</t>
   </si>
   <si>
+    <t>December 14, 1998</t>
+  </si>
+  <si>
+    <t>May 29, 1998</t>
+  </si>
+  <si>
     <t>December 30, 1984</t>
   </si>
   <si>
-    <t>September 15, 1993</t>
-  </si>
-  <si>
-    <t>December 14, 1998</t>
-  </si>
-  <si>
-    <t>May 29, 1998</t>
-  </si>
-  <si>
     <t>March 11, 1993</t>
   </si>
   <si>
@@ -160,6 +160,15 @@
     <t>February 8, 1998</t>
   </si>
   <si>
+    <t>November 26, 1996</t>
+  </si>
+  <si>
+    <t>April 3, 1999</t>
+  </si>
+  <si>
+    <t>May 12, 1998</t>
+  </si>
+  <si>
     <t>November 10, 2000</t>
   </si>
   <si>
@@ -169,57 +178,48 @@
     <t>February 23, 1996</t>
   </si>
   <si>
-    <t>November 26, 1996</t>
-  </si>
-  <si>
-    <t>April 3, 1999</t>
-  </si>
-  <si>
     <t>June 11, 1995</t>
   </si>
   <si>
-    <t>May 12, 1998</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
+    <t>de</t>
+  </si>
+  <si>
     <t>sd</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
     <t>jp</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -238,6 +238,12 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
@@ -247,30 +253,24 @@
     <t>Ohio State</t>
   </si>
   <si>
-    <t>Florida State</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
   </si>
   <si>
@@ -280,6 +280,15 @@
     <t>https://www.basketball-reference.com/players/h/hachiru01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pippesc02.html</t>
   </si>
   <si>
@@ -289,16 +298,7 @@
     <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -769,9 +769,6 @@
       </c>
       <c r="I3" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>80</v>
@@ -782,28 +779,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>81</v>
@@ -814,28 +814,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>82</v>
@@ -846,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -855,10 +858,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -867,10 +870,10 @@
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>83</v>
@@ -881,19 +884,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -903,9 +906,6 @@
       </c>
       <c r="I7" t="s">
         <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>84</v>
@@ -992,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1007,7 +1007,7 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>73</v>
@@ -1021,19 +1021,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1077,10 +1077,10 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>89</v>
@@ -1091,19 +1091,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1112,10 +1112,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>90</v>
@@ -1126,19 +1126,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1147,10 +1147,10 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>91</v>
@@ -1161,19 +1161,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1182,10 +1182,10 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>92</v>
@@ -1196,19 +1196,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1217,10 +1217,10 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>93</v>
@@ -1231,19 +1231,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1252,10 +1252,10 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>94</v>

--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -55,12 +55,12 @@
     <t>Wenyen Gabriel</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>Lonnie Walker IV</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
@@ -82,15 +82,15 @@
     <t>Mo Bamba</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Scotty Pippen Jr. (TW)</t>
   </si>
   <si>
     <t>Cole Swider (TW)</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Davon Reed</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>6-9</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>March 26, 1997</t>
   </si>
   <si>
+    <t>May 29, 1998</t>
+  </si>
+  <si>
     <t>December 14, 1998</t>
   </si>
   <si>
-    <t>May 29, 1998</t>
-  </si>
-  <si>
     <t>December 30, 1984</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>May 12, 1998</t>
   </si>
   <si>
+    <t>February 23, 1996</t>
+  </si>
+  <si>
     <t>November 10, 2000</t>
   </si>
   <si>
     <t>May 8, 1999</t>
   </si>
   <si>
-    <t>February 23, 1996</t>
-  </si>
-  <si>
     <t>June 11, 1995</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Wichita State, Oklahoma</t>
+  </si>
+  <si>
     <t>Miami (FL)</t>
   </si>
   <si>
-    <t>Wichita State, Oklahoma</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
     <t>Villanova, Syracuse</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
   </si>
   <si>
@@ -289,13 +289,13 @@
     <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pippesc02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/swideco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -835,7 +835,7 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -861,7 +861,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>187</v>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1135,10 +1135,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1147,7 +1147,7 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>76</v>
@@ -1161,19 +1161,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1196,19 +1196,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1217,7 +1217,7 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
@@ -1240,7 +1240,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>208</v>
@@ -1255,7 +1255,7 @@
         <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>94</v>

--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -79,12 +79,12 @@
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Scotty Pippen Jr. (TW)</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>April 3, 1999</t>
   </si>
   <si>
+    <t>February 23, 1996</t>
+  </si>
+  <si>
     <t>May 12, 1998</t>
   </si>
   <si>
-    <t>February 23, 1996</t>
-  </si>
-  <si>
     <t>November 10, 2000</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
@@ -286,10 +286,10 @@
     <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/russeda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pippesc02.html</t>
@@ -1091,19 +1091,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1112,7 +1112,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -1126,19 +1126,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1147,7 +1147,7 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
         <v>76</v>

--- a/rosters/2023/LA Lakers/LA Lakers.xlsx
+++ b/rosters/2023/LA Lakers/LA Lakers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -49,24 +49,24 @@
     <t>Troy Brown Jr.</t>
   </si>
   <si>
+    <t>Wenyen Gabriel</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Wenyen Gabriel</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
     <t>Lonnie Walker IV</t>
   </si>
   <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
     <t>Max Christie</t>
   </si>
   <si>
@@ -85,24 +85,27 @@
     <t>Mo Bamba</t>
   </si>
   <si>
+    <t>Cole Swider (TW)</t>
+  </si>
+  <si>
     <t>Scotty Pippen Jr. (TW)</t>
   </si>
   <si>
-    <t>Cole Swider (TW)</t>
-  </si>
-  <si>
-    <t>Davon Reed</t>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
+    <t>Shaquille Harrison</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,21 +115,21 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -136,24 +139,24 @@
     <t>July 28, 1999</t>
   </si>
   <si>
+    <t>March 26, 1997</t>
+  </si>
+  <si>
     <t>September 15, 1993</t>
   </si>
   <si>
-    <t>March 26, 1997</t>
-  </si>
-  <si>
     <t>May 29, 1998</t>
   </si>
   <si>
+    <t>March 11, 1993</t>
+  </si>
+  <si>
     <t>December 14, 1998</t>
   </si>
   <si>
     <t>December 30, 1984</t>
   </si>
   <si>
-    <t>March 11, 1993</t>
-  </si>
-  <si>
     <t>February 10, 2003</t>
   </si>
   <si>
@@ -172,45 +175,51 @@
     <t>May 12, 1998</t>
   </si>
   <si>
+    <t>May 8, 1999</t>
+  </si>
+  <si>
     <t>November 10, 2000</t>
   </si>
   <si>
-    <t>May 8, 1999</t>
-  </si>
-  <si>
-    <t>June 11, 1995</t>
+    <t>March 13, 1991</t>
+  </si>
+  <si>
+    <t>October 6, 1993</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>sd</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>jp</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -220,6 +229,12 @@
     <t>7</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -247,33 +262,36 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Villanova, Syracuse</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Villanova, Syracuse</t>
+    <t>Tulsa</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/browntr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/schrode01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gabriwe01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/reaveau01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/walkelo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jamesle01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/davisan02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/chrisma02.html</t>
   </si>
   <si>
@@ -292,13 +310,16 @@
     <t>https://www.basketball-reference.com/players/b/bambamo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/swideco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pippesc02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/swideco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
+    <t>https://www.basketball-reference.com/players/t/thomptr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/harrish01.html</t>
   </si>
 </sst>
 </file>
@@ -669,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -747,31 +768,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -779,34 +803,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,28 +841,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -849,34 +870,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -884,31 +905,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -916,34 +940,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -957,28 +978,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -995,25 +1016,25 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,28 +1048,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>187</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1071,19 +1092,19 @@
         <v>214</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1097,28 +1118,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1132,28 +1153,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1161,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1170,25 +1191,25 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1196,69 +1217,98 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1329,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
